--- a/data_out/us_rstar_comparison.xlsx
+++ b/data_out/us_rstar_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,45 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>panel</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>our_median</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>our_p25</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>our_p75</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>hartley_median</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>hartley_p25</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hartley_p75</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>median_diff</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>abs_diff</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>source</t>
         </is>
@@ -491,7 +496,11 @@
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -499,7 +508,8 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -511,7 +521,11 @@
           <t>2011-03-01</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -519,7 +533,8 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -531,7 +546,11 @@
           <t>2011-04-01</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -539,7 +558,8 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -551,7 +571,11 @@
           <t>2011-06-01</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -559,7 +583,8 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -571,7 +596,11 @@
           <t>2011-08-01</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -579,7 +608,8 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -591,7 +621,11 @@
           <t>2011-09-01</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -599,7 +633,8 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -611,7 +646,11 @@
           <t>2011-11-01</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -619,7 +658,8 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -631,31 +671,36 @@
           <t>2012-06-01</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>4</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.94</v>
       </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.94</v>
       </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -670,18 +715,19 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
         <v>3.75</v>
       </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -689,31 +735,36 @@
           <t>2012-08-01</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>4</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
         <v>3.75</v>
       </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
         <v>3.75</v>
       </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -725,31 +776,36 @@
           <t>2012-09-01</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>4</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
         <v>3.75</v>
       </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.75</v>
       </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -761,8 +817,10 @@
           <t>2012-10-01</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>4</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
@@ -780,12 +838,15 @@
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -800,18 +861,19 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -819,8 +881,10 @@
           <t>2012-12-01</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>4</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -838,12 +902,15 @@
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -855,8 +922,10 @@
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>4</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>4</v>
@@ -874,12 +943,15 @@
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -894,18 +966,19 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -913,31 +986,36 @@
           <t>2013-03-01</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>4</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
         <v>3.75</v>
       </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
         <v>3.75</v>
       </c>
-      <c r="G18" t="n">
-        <v>4</v>
-      </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -949,31 +1027,36 @@
           <t>2013-04-01</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>4</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
         <v>3.75</v>
       </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.75</v>
       </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -988,18 +1071,19 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>4</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.75</v>
       </c>
-      <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1007,31 +1091,36 @@
           <t>2013-06-01</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>4</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
         <v>3.75</v>
       </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
       <c r="E21" t="n">
         <v>4</v>
       </c>
       <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
         <v>3.75</v>
       </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1043,31 +1132,36 @@
           <t>2013-07-01</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>4</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
         <v>3.5</v>
       </c>
-      <c r="D22" t="n">
-        <v>4</v>
-      </c>
       <c r="E22" t="n">
         <v>4</v>
       </c>
       <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
         <v>3.5</v>
       </c>
-      <c r="G22" t="n">
-        <v>4</v>
-      </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1082,18 +1176,19 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>4</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
         <v>3.5</v>
       </c>
-      <c r="G23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1101,31 +1196,36 @@
           <t>2013-09-01</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>4</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
         <v>3.5</v>
       </c>
-      <c r="D24" t="n">
-        <v>4</v>
-      </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
         <v>3.5</v>
       </c>
-      <c r="G24" t="n">
-        <v>4</v>
-      </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1137,31 +1237,36 @@
           <t>2013-10-01</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>4</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
         <v>3.75</v>
       </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
         <v>3.75</v>
       </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1176,18 +1281,19 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>4</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
         <v>3.75</v>
       </c>
-      <c r="G26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1195,31 +1301,36 @@
           <t>2013-12-01</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>4</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
         <v>3.75</v>
       </c>
-      <c r="D27" t="n">
-        <v>4</v>
-      </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
         <v>3.75</v>
       </c>
-      <c r="G27" t="n">
-        <v>4</v>
-      </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1231,31 +1342,36 @@
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>4</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
         <v>3.75</v>
       </c>
-      <c r="D28" t="n">
-        <v>4</v>
-      </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
         <v>3.75</v>
       </c>
-      <c r="G28" t="n">
-        <v>4</v>
-      </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1270,18 +1386,19 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>4</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
         <v>3.75</v>
       </c>
-      <c r="G29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1289,31 +1406,36 @@
           <t>2014-03-01</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>3.75</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>3.75</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="E30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>3.75</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1325,31 +1447,36 @@
           <t>2014-04-01</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>3.75</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>3.5</v>
       </c>
-      <c r="D31" t="n">
-        <v>4</v>
-      </c>
       <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
         <v>3.75</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>3.5</v>
       </c>
-      <c r="G31" t="n">
-        <v>4</v>
-      </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1364,18 +1491,19 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
         <v>3.75</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.5</v>
       </c>
-      <c r="G32" t="n">
-        <v>4</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1383,31 +1511,36 @@
           <t>2014-06-01</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>3.5</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>3.5</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E33" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>3.5</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1419,31 +1552,36 @@
           <t>2014-07-01</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>3.5</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C34" t="n">
         <v>3.5</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E34" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>3.5</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1458,18 +1596,19 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
         <v>3.5</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1477,31 +1616,36 @@
           <t>2014-09-01</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>3.5</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>3.5</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E36" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
         <v>3.5</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1513,31 +1657,36 @@
           <t>2014-10-01</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>3.5</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>3.5</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E37" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>3.5</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1552,18 +1701,19 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
         <v>3.5</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1571,31 +1721,36 @@
           <t>2014-12-01</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>3.5</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C39" t="n">
         <v>3.5</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E39" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>3.5</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1607,31 +1762,36 @@
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>3.5</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>3.5</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E40" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>3.5</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1646,18 +1806,19 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
         <v>3.5</v>
       </c>
       <c r="G41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.75</v>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1665,31 +1826,36 @@
           <t>2015-03-01</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>3.5</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>3.25</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>3.75</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>3.5</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>3.25</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>3.75</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1701,31 +1867,36 @@
           <t>2015-04-01</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>3.5</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>3.25</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>3.75</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>3.5</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>3.25</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>3.75</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1740,18 +1911,19 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
         <v>3.5</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>3.25</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>3.75</v>
       </c>
-      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1759,31 +1931,36 @@
           <t>2015-06-01</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>3.5</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>3.25</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>3.75</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>3.5</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>3.25</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>3.75</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1795,31 +1972,36 @@
           <t>2015-07-01</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>3.38</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>3.25</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>3.75</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>3.38</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>3.25</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>3.75</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1834,18 +2016,19 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
         <v>3.38</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>3.25</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>3.75</v>
       </c>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1853,31 +2036,36 @@
           <t>2015-09-01</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>3.38</v>
       </c>
-      <c r="C48" t="n">
-        <v>3</v>
-      </c>
       <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
         <v>3.75</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>3.38</v>
       </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
       <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.75</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1892,18 +2080,19 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
         <v>3.25</v>
       </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
       <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.5</v>
       </c>
-      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1914,18 +2103,19 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
         <v>3.25</v>
       </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.5</v>
       </c>
-      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1933,31 +2123,36 @@
           <t>2015-12-01</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>3.25</v>
       </c>
-      <c r="C51" t="n">
-        <v>3</v>
-      </c>
       <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="n">
         <v>3.5</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>3.25</v>
       </c>
-      <c r="F51" t="n">
-        <v>3</v>
-      </c>
       <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.5</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -1969,31 +2164,36 @@
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>3.25</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>2.9</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>3.5</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>3.25</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>2.9</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>3.5</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2008,18 +2208,19 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
         <v>3.25</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2.9</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>3.5</v>
       </c>
-      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2027,31 +2228,36 @@
           <t>2016-03-01</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>3.25</v>
       </c>
-      <c r="C54" t="n">
-        <v>3</v>
-      </c>
       <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
         <v>3.38</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>3.25</v>
       </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
       <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.38</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2063,31 +2269,36 @@
           <t>2016-04-01</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>3.25</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>2.9</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3.25</v>
       </c>
       <c r="E55" t="n">
         <v>3.25</v>
       </c>
       <c r="F55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G55" t="n">
         <v>2.9</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>3.25</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2102,18 +2313,19 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
         <v>3.25</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>2.9</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>3.25</v>
       </c>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2121,8 +2333,10 @@
           <t>2016-06-01</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>3.25</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C57" t="n">
         <v>3.25</v>
@@ -2131,21 +2345,24 @@
         <v>3.25</v>
       </c>
       <c r="E57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F57" t="n">
         <v>3.13</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>2.75</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.1199999999999997</v>
       </c>
       <c r="I57" t="n">
         <v>0.1199999999999997</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0.1199999999999997</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2157,31 +2374,36 @@
           <t>2016-07-01</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>3</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
         <v>2.63</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>3.25</v>
       </c>
-      <c r="E58" t="n">
-        <v>3</v>
-      </c>
       <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
         <v>2.63</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>3.25</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2196,18 +2418,19 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>3</v>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
         <v>2.63</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>3.25</v>
       </c>
-      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2215,31 +2438,36 @@
           <t>2016-09-01</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>3</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2254,18 +2482,19 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
         <v>2.75</v>
       </c>
-      <c r="F61" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2273,31 +2502,36 @@
           <t>2016-11-01</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>2.75</v>
       </c>
-      <c r="C62" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
         <v>2.75</v>
       </c>
-      <c r="F62" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2309,31 +2543,36 @@
           <t>2016-12-01</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>2.75</v>
       </c>
-      <c r="C63" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
         <v>2.75</v>
       </c>
-      <c r="F63" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2345,31 +2584,36 @@
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>3</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2384,18 +2628,19 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>3</v>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2403,8 +2648,10 @@
           <t>2017-03-01</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>3</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C66" t="n">
         <v>3</v>
@@ -2416,18 +2663,21 @@
         <v>3</v>
       </c>
       <c r="F66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" t="n">
         <v>2.63</v>
       </c>
-      <c r="G66" t="n">
-        <v>3</v>
-      </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2442,18 +2692,19 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>3</v>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="n">
         <v>2.63</v>
       </c>
-      <c r="G67" t="n">
-        <v>3</v>
-      </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2464,18 +2715,19 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="n">
         <v>2.63</v>
       </c>
-      <c r="G68" t="n">
-        <v>3</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2483,31 +2735,36 @@
           <t>2017-06-01</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
         <v>2.88</v>
       </c>
-      <c r="C69" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
         <v>2.88</v>
       </c>
-      <c r="F69" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2519,31 +2776,36 @@
           <t>2017-07-01</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>2.75</v>
       </c>
-      <c r="C70" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
         <v>2.75</v>
       </c>
-      <c r="F70" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2558,18 +2820,19 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
         <v>2.75</v>
       </c>
-      <c r="F71" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G71" t="n">
-        <v>3</v>
-      </c>
-      <c r="H71" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2577,31 +2840,36 @@
           <t>2017-09-01</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>2.75</v>
       </c>
-      <c r="C72" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
         <v>2.75</v>
       </c>
-      <c r="F72" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2613,31 +2881,36 @@
           <t>2017-10-01</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
         <v>2.75</v>
       </c>
-      <c r="C73" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="n">
         <v>2.75</v>
       </c>
-      <c r="F73" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2652,18 +2925,19 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
         <v>2.75</v>
       </c>
-      <c r="F74" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G74" t="n">
-        <v>3</v>
-      </c>
-      <c r="H74" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2671,31 +2945,36 @@
           <t>2017-12-01</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>2.75</v>
       </c>
-      <c r="C75" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
         <v>2.75</v>
       </c>
-      <c r="F75" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2707,31 +2986,36 @@
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
         <v>2.75</v>
       </c>
-      <c r="C76" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
         <v>2.75</v>
       </c>
-      <c r="F76" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2746,18 +3030,19 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
         <v>2.75</v>
       </c>
-      <c r="F77" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G77" t="n">
-        <v>3</v>
-      </c>
-      <c r="H77" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2765,31 +3050,36 @@
           <t>2018-03-01</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
         <v>2.75</v>
       </c>
-      <c r="C78" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
         <v>2.75</v>
       </c>
-      <c r="F78" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2804,18 +3094,19 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
         <v>2.75</v>
       </c>
-      <c r="F79" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G79" t="n">
-        <v>3</v>
-      </c>
-      <c r="H79" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2823,31 +3114,36 @@
           <t>2018-05-01</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>2.75</v>
       </c>
-      <c r="C80" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
         <v>2.75</v>
       </c>
-      <c r="F80" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2859,31 +3155,36 @@
           <t>2018-06-01</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>2.75</v>
       </c>
-      <c r="C81" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
         <v>2.75</v>
       </c>
-      <c r="F81" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2895,31 +3196,36 @@
           <t>2018-07-01</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>2.75</v>
       </c>
-      <c r="C82" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
         <v>2.75</v>
       </c>
-      <c r="F82" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2934,18 +3240,19 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="n">
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
         <v>2.75</v>
       </c>
-      <c r="F83" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G83" t="n">
-        <v>3</v>
-      </c>
-      <c r="H83" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2953,31 +3260,36 @@
           <t>2018-09-01</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>2.75</v>
       </c>
-      <c r="C84" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
         <v>2.75</v>
       </c>
-      <c r="F84" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -2992,18 +3304,19 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
         <v>2.88</v>
       </c>
-      <c r="F85" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G85" t="n">
-        <v>3</v>
-      </c>
-      <c r="H85" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3011,31 +3324,36 @@
           <t>2018-11-01</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>2.88</v>
       </c>
-      <c r="C86" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
         <v>2.88</v>
       </c>
-      <c r="F86" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3047,31 +3365,36 @@
           <t>2018-12-01</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>2.88</v>
       </c>
-      <c r="C87" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
         <v>2.88</v>
       </c>
-      <c r="F87" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3083,31 +3406,36 @@
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>2.75</v>
       </c>
-      <c r="C88" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E88" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
         <v>2.75</v>
       </c>
-      <c r="F88" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3122,18 +3450,19 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
         <v>2.75</v>
       </c>
-      <c r="F89" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G89" t="n">
-        <v>3</v>
-      </c>
-      <c r="H89" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3141,31 +3470,36 @@
           <t>2019-03-01</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>2.75</v>
       </c>
-      <c r="C90" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E90" t="n">
         <v>2.88</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>2.75</v>
       </c>
-      <c r="F90" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H90" t="n">
         <v>2.88</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3180,18 +3514,19 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="n">
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
         <v>2.75</v>
       </c>
-      <c r="F91" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H91" t="n">
         <v>2.88</v>
       </c>
-      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3199,31 +3534,36 @@
           <t>2019-05-01</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
         <v>2.75</v>
       </c>
-      <c r="C92" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E92" t="n">
         <v>2.88</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>2.75</v>
       </c>
-      <c r="F92" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H92" t="n">
         <v>2.88</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3235,31 +3575,36 @@
           <t>2019-06-01</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
         <v>2.69</v>
       </c>
-      <c r="C93" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E93" t="n">
         <v>2.81</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>2.69</v>
       </c>
-      <c r="F93" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H93" t="n">
         <v>2.81</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3271,31 +3616,36 @@
           <t>2019-07-01</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>2.5</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D94" t="n">
         <v>2.31</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>2.75</v>
       </c>
-      <c r="E94" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G94" t="n">
         <v>2.31</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>2.75</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3310,18 +3660,19 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G95" t="n">
         <v>2.31</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>2.75</v>
       </c>
-      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3329,31 +3680,36 @@
           <t>2019-09-01</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>2.5</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D96" t="n">
         <v>2.25</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>2.56</v>
       </c>
-      <c r="E96" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G96" t="n">
         <v>2.25</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>2.56</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3365,31 +3721,36 @@
           <t>2019-10-01</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>2.5</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D97" t="n">
         <v>2.25</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>2.56</v>
       </c>
-      <c r="E97" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G97" t="n">
         <v>2.25</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>2.56</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3404,18 +3765,19 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G98" t="n">
         <v>2.25</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>2.56</v>
       </c>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3423,31 +3785,36 @@
           <t>2019-12-01</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>2.5</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D99" t="n">
         <v>2.25</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>2.56</v>
       </c>
-      <c r="E99" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G99" t="n">
         <v>2.25</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>2.56</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3459,31 +3826,36 @@
           <t>2020-01-01</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>2.4</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>2.25</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>2.56</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>2.4</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>2.25</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>2.56</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3498,18 +3870,19 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="n">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
         <v>2.4</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>2.25</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>2.56</v>
       </c>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3517,31 +3890,36 @@
           <t>2020-03-01</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
         <v>2.25</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>2.06</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>2.56</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>2.25</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>2.06</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>2.56</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3553,31 +3931,36 @@
           <t>2020-04-01</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
         <v>2.19</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>2</v>
       </c>
-      <c r="D103" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F103" t="n">
         <v>2.19</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>2</v>
       </c>
-      <c r="G103" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3592,18 +3975,19 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="n">
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
         <v>2.19</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>2</v>
       </c>
-      <c r="G104" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3611,31 +3995,36 @@
           <t>2020-06-01</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
         <v>2.25</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>2</v>
       </c>
-      <c r="D105" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F105" t="n">
         <v>2.25</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>2</v>
       </c>
-      <c r="G105" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3647,31 +4036,36 @@
           <t>2020-07-01</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
         <v>2.25</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>2</v>
       </c>
-      <c r="D106" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F106" t="n">
         <v>2.25</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>2</v>
       </c>
-      <c r="G106" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3686,18 +4080,19 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="n">
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
         <v>2.25</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>2</v>
       </c>
-      <c r="G107" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3705,31 +4100,36 @@
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
         <v>2.25</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>2</v>
       </c>
-      <c r="D108" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F108" t="n">
         <v>2.25</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>2</v>
       </c>
-      <c r="G108" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3744,18 +4144,19 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="n">
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
         <v>2.25</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>2</v>
       </c>
-      <c r="G109" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3763,31 +4164,36 @@
           <t>2020-11-01</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>2.25</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>2</v>
       </c>
-      <c r="D110" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F110" t="n">
         <v>2.25</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>2</v>
       </c>
-      <c r="G110" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3799,31 +4205,36 @@
           <t>2020-12-01</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
         <v>2.25</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>2</v>
       </c>
-      <c r="D111" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F111" t="n">
         <v>2.25</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>2</v>
       </c>
-      <c r="G111" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3835,31 +4246,36 @@
           <t>2021-01-01</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>2.25</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>2</v>
       </c>
-      <c r="D112" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F112" t="n">
         <v>2.25</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>2</v>
       </c>
-      <c r="G112" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3874,18 +4290,19 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="n">
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
         <v>2.25</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>2</v>
       </c>
-      <c r="G113" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3893,31 +4310,36 @@
           <t>2021-03-01</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
         <v>2.25</v>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>2.13</v>
       </c>
-      <c r="D114" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F114" t="n">
         <v>2.31</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>2.13</v>
       </c>
-      <c r="G114" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I114" t="n">
         <v>-0.06000000000000005</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3929,31 +4351,36 @@
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>2.31</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>2.13</v>
       </c>
-      <c r="D115" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F115" t="n">
         <v>2.31</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>2.13</v>
       </c>
-      <c r="G115" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -3968,18 +4395,19 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="n">
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
         <v>2.31</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>2.13</v>
       </c>
-      <c r="G116" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3987,31 +4415,36 @@
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
         <v>2.31</v>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>2.06</v>
       </c>
-      <c r="D117" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F117" t="n">
         <v>2.31</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>2.06</v>
       </c>
-      <c r="G117" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4023,31 +4456,36 @@
           <t>2021-07-01</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
         <v>2.25</v>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>2.06</v>
       </c>
-      <c r="D118" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F118" t="n">
         <v>2.25</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>2.06</v>
       </c>
-      <c r="G118" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4062,18 +4500,19 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="n">
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="n">
         <v>2.25</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>2.06</v>
       </c>
-      <c r="G119" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4081,31 +4520,36 @@
           <t>2021-09-01</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
         <v>2.25</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>2</v>
       </c>
-      <c r="D120" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F120" t="n">
         <v>2.25</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>2</v>
       </c>
-      <c r="G120" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4120,18 +4564,19 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="n">
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="n">
         <v>2.25</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>2</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>2.44</v>
       </c>
-      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4139,31 +4584,36 @@
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
         <v>2.25</v>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>2</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>2.44</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>2.25</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>2</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>2.44</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4175,31 +4625,36 @@
           <t>2021-12-01</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
         <v>2.25</v>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>2</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>2.44</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>2.25</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>2</v>
       </c>
-      <c r="G123" t="n">
+      <c r="H123" t="n">
         <v>2.44</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4211,31 +4666,36 @@
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
         <v>2.25</v>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>2</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>2.44</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>2.25</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>2</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
         <v>2.44</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4250,18 +4710,19 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="n">
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="n">
         <v>2.25</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>2</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>2.44</v>
       </c>
-      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4269,31 +4730,36 @@
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
         <v>2.25</v>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>2.13</v>
       </c>
-      <c r="D126" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F126" t="n">
         <v>2.25</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>2.13</v>
       </c>
-      <c r="G126" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4308,18 +4774,19 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="n">
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="n">
         <v>2.38</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>2.13</v>
       </c>
-      <c r="G127" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4327,31 +4794,36 @@
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
         <v>2.38</v>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>2.13</v>
       </c>
-      <c r="D128" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F128" t="n">
         <v>2.38</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>2.13</v>
       </c>
-      <c r="G128" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I128" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I128" t="n">
+      <c r="J128" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4363,31 +4835,36 @@
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
         <v>2.38</v>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>2.25</v>
       </c>
-      <c r="D129" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F129" t="n">
         <v>2.38</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>2.25</v>
       </c>
-      <c r="G129" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I129" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I129" t="n">
+      <c r="J129" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4399,31 +4876,36 @@
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
         <v>2.38</v>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>2.13</v>
       </c>
-      <c r="D130" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F130" t="n">
         <v>2.38</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>2.13</v>
       </c>
-      <c r="G130" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I130" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I130" t="n">
+      <c r="J130" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4438,18 +4920,19 @@
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="n">
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
         <v>2.38</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>2.13</v>
       </c>
-      <c r="G131" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4457,31 +4940,36 @@
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
         <v>2.38</v>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>2.25</v>
       </c>
-      <c r="D132" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F132" t="n">
         <v>2.38</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>2.25</v>
       </c>
-      <c r="G132" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I132" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I132" t="n">
+      <c r="J132" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4496,18 +4984,19 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="n">
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
         <v>2.4</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>2.25</v>
       </c>
-      <c r="G133" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4515,31 +5004,36 @@
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
         <v>2.4</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>2.25</v>
       </c>
-      <c r="D134" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F134" t="n">
         <v>2.4</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>2.25</v>
       </c>
-      <c r="G134" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4551,31 +5045,36 @@
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B135" t="n">
-        <v>2.5</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D135" t="n">
         <v>2.25</v>
       </c>
-      <c r="D135" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E135" t="n">
         <v>2.5</v>
       </c>
       <c r="F135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G135" t="n">
         <v>2.25</v>
       </c>
-      <c r="G135" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4587,31 +5086,36 @@
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>2.5</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D136" t="n">
         <v>2.25</v>
       </c>
-      <c r="D136" t="n">
-        <v>2.5</v>
-      </c>
       <c r="E136" t="n">
         <v>2.5</v>
       </c>
       <c r="F136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G136" t="n">
         <v>2.25</v>
       </c>
-      <c r="G136" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4626,18 +5130,19 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G137" t="n">
         <v>2.25</v>
       </c>
-      <c r="G137" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>2.5</v>
+      </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4645,31 +5150,36 @@
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>2.5</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D138" t="n">
         <v>2.38</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>2.63</v>
       </c>
-      <c r="E138" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G138" t="n">
         <v>2.38</v>
       </c>
-      <c r="G138" t="n">
+      <c r="H138" t="n">
         <v>2.63</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4684,18 +5194,19 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G139" t="n">
         <v>2.4</v>
       </c>
-      <c r="G139" t="n">
+      <c r="H139" t="n">
         <v>2.63</v>
       </c>
-      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4703,31 +5214,36 @@
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>2.5</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D140" t="n">
         <v>2.4</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>2.63</v>
       </c>
-      <c r="E140" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G140" t="n">
         <v>2.4</v>
       </c>
-      <c r="G140" t="n">
+      <c r="H140" t="n">
         <v>2.63</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4739,31 +5255,36 @@
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>2.5</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SPD</t>
+        </is>
       </c>
       <c r="C141" t="n">
         <v>2.5</v>
       </c>
       <c r="D141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E141" t="n">
         <v>2.63</v>
       </c>
-      <c r="E141" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F141" t="n">
         <v>2.5</v>
       </c>
       <c r="G141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H141" t="n">
         <v>2.63</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>pdf_llm</t>
         </is>
@@ -4775,31 +5296,36 @@
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="B142" t="n">
-        <v>2.5</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C142" t="n">
         <v>2.5</v>
       </c>
       <c r="D142" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="E142" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="F142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G142" t="n">
         <v>2.38</v>
       </c>
-      <c r="G142" t="n">
+      <c r="H142" t="n">
         <v>2.75</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -4814,18 +5340,19 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G143" t="n">
         <v>2.38</v>
       </c>
-      <c r="G143" t="n">
+      <c r="H143" t="n">
         <v>2.75</v>
       </c>
-      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4833,31 +5360,36 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>2.5</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C144" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="D144" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="E144" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F144" t="n">
         <v>2.56</v>
       </c>
-      <c r="F144" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H144" t="n">
         <v>2.88</v>
       </c>
-      <c r="H144" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
       <c r="I144" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="J144" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -4869,31 +5401,36 @@
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="B145" t="n">
-        <v>2.75</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C145" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E145" t="n">
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
         <v>2.63</v>
       </c>
-      <c r="F145" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H145" t="n">
-        <v>0.1200000000000001</v>
+        <v>3</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -4908,18 +5445,19 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="n">
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="n">
         <v>2.63</v>
       </c>
-      <c r="F146" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G146" t="n">
-        <v>3</v>
-      </c>
-      <c r="H146" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4927,31 +5465,36 @@
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
         <v>2.75</v>
       </c>
-      <c r="C147" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
         <v>2.75</v>
       </c>
-      <c r="F147" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -4963,31 +5506,36 @@
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>2.88</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C148" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="D148" t="n">
-        <v>3.03</v>
+        <v>2.5</v>
       </c>
       <c r="E148" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F148" t="n">
         <v>2.75</v>
       </c>
-      <c r="F148" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.08</v>
       </c>
-      <c r="H148" t="n">
-        <v>0.1299999999999999</v>
-      </c>
       <c r="I148" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5002,18 +5550,19 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="n">
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="n">
         <v>2.75</v>
       </c>
-      <c r="F149" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.08</v>
       </c>
-      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5021,31 +5570,36 @@
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>2.94</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C150" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="D150" t="n">
-        <v>3.13</v>
+        <v>2.5</v>
       </c>
       <c r="E150" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F150" t="n">
         <v>2.75</v>
       </c>
-      <c r="F150" t="n">
-        <v>2.5</v>
-      </c>
       <c r="G150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H150" t="n">
         <v>3.11</v>
       </c>
-      <c r="H150" t="n">
-        <v>0.1899999999999999</v>
-      </c>
       <c r="I150" t="n">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="J150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5060,18 +5614,19 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="n">
-        <v>3</v>
-      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="n">
         <v>2.63</v>
       </c>
-      <c r="G151" t="n">
+      <c r="H151" t="n">
         <v>3.13</v>
       </c>
-      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5079,31 +5634,36 @@
           <t>2024-05-01</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>3</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C152" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
-        <v>3.16</v>
+        <v>2.63</v>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="F152" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" t="n">
         <v>2.63</v>
       </c>
-      <c r="G152" t="n">
+      <c r="H152" t="n">
         <v>3.13</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5115,31 +5675,36 @@
           <t>2024-06-01</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E153" t="n">
         <v>3.13</v>
       </c>
-      <c r="C153" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D153" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="E153" t="n">
-        <v>3</v>
-      </c>
       <c r="F153" t="n">
+        <v>3</v>
+      </c>
+      <c r="G153" t="n">
         <v>2.72</v>
       </c>
-      <c r="G153" t="n">
+      <c r="H153" t="n">
         <v>3.13</v>
       </c>
-      <c r="H153" t="n">
-        <v>0.1299999999999999</v>
-      </c>
       <c r="I153" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J153" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5151,31 +5716,36 @@
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>3.13</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C154" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
-        <v>3.38</v>
+        <v>2.75</v>
       </c>
       <c r="E154" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
         <v>2.75</v>
       </c>
-      <c r="G154" t="n">
+      <c r="H154" t="n">
         <v>3.25</v>
       </c>
-      <c r="H154" t="n">
-        <v>0.1299999999999999</v>
-      </c>
       <c r="I154" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5190,18 +5760,19 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="n">
-        <v>3</v>
-      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
+        <v>3</v>
+      </c>
+      <c r="G155" t="n">
         <v>2.75</v>
       </c>
-      <c r="G155" t="n">
+      <c r="H155" t="n">
         <v>3.25</v>
       </c>
-      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5209,31 +5780,36 @@
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B156" t="n">
-        <v>3.06</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C156" t="n">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="D156" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="E156" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F156" t="n">
         <v>2.88</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>2.75</v>
       </c>
-      <c r="G156" t="n">
+      <c r="H156" t="n">
         <v>3.13</v>
       </c>
-      <c r="H156" t="n">
-        <v>0.1800000000000002</v>
-      </c>
       <c r="I156" t="n">
-        <v>0.1800000000000002</v>
-      </c>
-      <c r="J156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5248,18 +5824,19 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="n">
-        <v>3</v>
-      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
+        <v>3</v>
+      </c>
+      <c r="G157" t="n">
         <v>2.75</v>
       </c>
-      <c r="G157" t="n">
+      <c r="H157" t="n">
         <v>3.13</v>
       </c>
-      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5267,31 +5844,36 @@
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E158" t="n">
         <v>3.13</v>
       </c>
-      <c r="C158" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E158" t="n">
-        <v>3</v>
-      </c>
       <c r="F158" t="n">
+        <v>3</v>
+      </c>
+      <c r="G158" t="n">
         <v>2.75</v>
       </c>
-      <c r="G158" t="n">
+      <c r="H158" t="n">
         <v>3.13</v>
       </c>
-      <c r="H158" t="n">
-        <v>0.1299999999999999</v>
-      </c>
       <c r="I158" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J158" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5303,31 +5885,36 @@
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
         <v>3.13</v>
       </c>
-      <c r="C159" t="n">
-        <v>2.97</v>
-      </c>
       <c r="D159" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E159" t="n">
         <v>3.38</v>
       </c>
-      <c r="E159" t="n">
-        <v>3</v>
-      </c>
       <c r="F159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="n">
         <v>2.72</v>
       </c>
-      <c r="G159" t="n">
+      <c r="H159" t="n">
         <v>3.19</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.1299999999999999</v>
       </c>
       <c r="I159" t="n">
         <v>0.1299999999999999</v>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="J159" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5339,31 +5926,36 @@
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="B160" t="n">
-        <v>3.19</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="D160" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="E160" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F160" t="n">
         <v>3.13</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>2.88</v>
       </c>
-      <c r="G160" t="n">
+      <c r="H160" t="n">
         <v>3.45</v>
       </c>
-      <c r="H160" t="n">
-        <v>0.06000000000000005</v>
-      </c>
       <c r="I160" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="J160" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5378,18 +5970,19 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="n">
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="n">
         <v>3.13</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>2.88</v>
       </c>
-      <c r="G161" t="n">
+      <c r="H161" t="n">
         <v>3.45</v>
       </c>
-      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5397,31 +5990,36 @@
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
         <v>3.13</v>
       </c>
-      <c r="C162" t="n">
-        <v>3</v>
-      </c>
       <c r="D162" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="E162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F162" t="n">
         <v>3.13</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>2.88</v>
       </c>
-      <c r="G162" t="n">
+      <c r="H162" t="n">
         <v>3.4</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5436,18 +6034,19 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
-      <c r="E163" t="n">
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
         <v>3.13</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>2.88</v>
       </c>
-      <c r="G163" t="n">
+      <c r="H163" t="n">
         <v>3.8</v>
       </c>
-      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5455,31 +6054,36 @@
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
         <v>3.13</v>
       </c>
-      <c r="C164" t="n">
-        <v>3</v>
-      </c>
       <c r="D164" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="E164" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F164" t="n">
         <v>3.13</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>2.88</v>
       </c>
-      <c r="G164" t="n">
+      <c r="H164" t="n">
         <v>3.8</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5491,31 +6095,36 @@
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
         <v>3.13</v>
       </c>
-      <c r="C165" t="n">
-        <v>3</v>
-      </c>
       <c r="D165" t="n">
-        <v>3.5</v>
+        <v>2.91</v>
       </c>
       <c r="E165" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F165" t="n">
         <v>3.13</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>2.91</v>
       </c>
-      <c r="G165" t="n">
+      <c r="H165" t="n">
         <v>3.39</v>
       </c>
-      <c r="H165" t="n">
+      <c r="I165" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I165" t="n">
+      <c r="J165" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5527,31 +6136,36 @@
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
         <v>3.13</v>
       </c>
-      <c r="C166" t="n">
-        <v>3</v>
-      </c>
       <c r="D166" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="E166" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F166" t="n">
         <v>3.13</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>2.88</v>
       </c>
-      <c r="G166" t="n">
+      <c r="H166" t="n">
         <v>3.38</v>
       </c>
-      <c r="H166" t="n">
+      <c r="I166" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I166" t="n">
+      <c r="J166" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5566,18 +6180,19 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="n">
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="n">
         <v>3.13</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>2.88</v>
       </c>
-      <c r="G167" t="n">
+      <c r="H167" t="n">
         <v>3.38</v>
       </c>
-      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5585,31 +6200,36 @@
           <t>2025-09-01</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
         <v>3.13</v>
       </c>
-      <c r="C168" t="n">
-        <v>2.9</v>
-      </c>
       <c r="D168" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="E168" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F168" t="n">
         <v>3.13</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>2.88</v>
       </c>
-      <c r="G168" t="n">
+      <c r="H168" t="n">
         <v>3.38</v>
       </c>
-      <c r="H168" t="n">
+      <c r="I168" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I168" t="n">
+      <c r="J168" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5621,31 +6241,36 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
         <v>3.13</v>
       </c>
-      <c r="C169" t="n">
-        <v>3</v>
-      </c>
       <c r="D169" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="E169" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F169" t="n">
         <v>3.13</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>2.88</v>
       </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>3.38</v>
       </c>
-      <c r="H169" t="n">
+      <c r="I169" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I169" t="n">
+      <c r="J169" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
@@ -5660,18 +6285,19 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
-      <c r="E170" t="n">
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="n">
         <v>3.13</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>2.88</v>
       </c>
-      <c r="G170" t="n">
+      <c r="H170" t="n">
         <v>3.38</v>
       </c>
-      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5679,31 +6305,36 @@
           <t>2025-12-01</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
         <v>3.13</v>
       </c>
-      <c r="C171" t="n">
-        <v>3</v>
-      </c>
       <c r="D171" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="E171" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F171" t="n">
         <v>3.13</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>2.88</v>
       </c>
-      <c r="G171" t="n">
+      <c r="H171" t="n">
         <v>3.38</v>
       </c>
-      <c r="H171" t="n">
+      <c r="I171" t="n">
         <v>-4.440892098500626e-16</v>
       </c>
-      <c r="I171" t="n">
+      <c r="J171" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="J171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>xlsx</t>
         </is>
